--- a/data/carrot_package_data.xlsx
+++ b/data/carrot_package_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD60F41E-9A45-DA4E-88B3-8F8139FA1138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581E3E5F-695F-604B-A71D-FA01F89B99D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" tabRatio="969" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,9 +259,6 @@
     <t>02.12.2022</t>
   </si>
   <si>
-    <t>Flowpack</t>
-  </si>
-  <si>
     <t>Papiersack</t>
   </si>
   <si>
@@ -295,36 +292,6 @@
     <t>PLA-Schale</t>
   </si>
   <si>
-    <t>Flowpack 1</t>
-  </si>
-  <si>
-    <t>Flowpack 6</t>
-  </si>
-  <si>
-    <t>Flowpack 4</t>
-  </si>
-  <si>
-    <t>Flowpack 3</t>
-  </si>
-  <si>
-    <t>Flowpack 7</t>
-  </si>
-  <si>
-    <t>Flowpack 10</t>
-  </si>
-  <si>
-    <t>Flowpack 5</t>
-  </si>
-  <si>
-    <t>Flowpack 2</t>
-  </si>
-  <si>
-    <t>Flowpack 8</t>
-  </si>
-  <si>
-    <t>Flowpack 9</t>
-  </si>
-  <si>
     <t>PLA-Schale 8</t>
   </si>
   <si>
@@ -476,6 +443,39 @@
   </si>
   <si>
     <t>trt</t>
+  </si>
+  <si>
+    <t>Kontrolle</t>
+  </si>
+  <si>
+    <t>Kontrolle 1</t>
+  </si>
+  <si>
+    <t>Kontrolle 3</t>
+  </si>
+  <si>
+    <t>Kontrolle 7</t>
+  </si>
+  <si>
+    <t>Kontrolle 2</t>
+  </si>
+  <si>
+    <t>Kontrolle 8</t>
+  </si>
+  <si>
+    <t>Kontrolle 6</t>
+  </si>
+  <si>
+    <t>Kontrolle 10</t>
+  </si>
+  <si>
+    <t>Kontrolle 5</t>
+  </si>
+  <si>
+    <t>Kontrolle 9</t>
+  </si>
+  <si>
+    <t>Kontrolle 4</t>
   </si>
 </sst>
 </file>
@@ -1295,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1309,212 +1309,212 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="85" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C1" s="83" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D1" s="84" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="81" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="C3" s="85" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="D3" s="82" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="83" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B4" s="82" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C4" s="85" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="D4" s="82" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="86" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C5" s="83" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D5" s="83" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="84" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="85" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="B7" s="85" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="82" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B8" s="85" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D8" s="85" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="84" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B9" s="81" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C9" s="86" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D9" s="83" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="81" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C10" s="84" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D10" s="84" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="83" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D11" s="83" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="86" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B12" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="84" t="s">
-        <v>108</v>
-      </c>
       <c r="D12" s="82" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="84" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B13" s="86" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C13" s="84" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D13" s="81" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="81" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B14" s="86" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C14" s="86" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D14" s="81" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="85" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="B15" s="81" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C15" s="82" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D15" s="84" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1522,7 +1522,7 @@
         <v>60</v>
       </c>
       <c r="B18" s="85" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1535,7 +1535,7 @@
         <v>61</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1548,7 +1548,7 @@
         <v>62</v>
       </c>
       <c r="B20" s="84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1561,7 +1561,7 @@
         <v>63</v>
       </c>
       <c r="B21" s="81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1574,7 +1574,7 @@
         <v>64</v>
       </c>
       <c r="B22" s="82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1587,7 +1587,7 @@
         <v>65</v>
       </c>
       <c r="B23" s="86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1668,7 +1668,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>66</v>
@@ -2889,7 +2889,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>66</v>
@@ -2910,19 +2910,19 @@
         <v>71</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -4329,7 +4329,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>66</v>
@@ -5282,7 +5282,7 @@
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -5294,7 +5294,7 @@
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -5306,7 +5306,7 @@
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -5318,7 +5318,7 @@
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -5330,7 +5330,7 @@
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -5342,7 +5342,7 @@
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -5354,7 +5354,7 @@
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -5366,7 +5366,7 @@
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -5378,7 +5378,7 @@
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -5390,7 +5390,7 @@
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -5416,7 +5416,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>66</v>
@@ -5441,7 +5441,7 @@
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12">
@@ -5455,7 +5455,7 @@
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14">
@@ -5469,7 +5469,7 @@
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14">
@@ -5483,7 +5483,7 @@
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12">
@@ -5497,7 +5497,7 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="14">
         <v>3</v>
@@ -5511,7 +5511,7 @@
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="14">
         <v>1.5</v>
@@ -5525,7 +5525,7 @@
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="12">
         <v>2</v>
@@ -5575,7 +5575,7 @@
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17">
@@ -5589,7 +5589,7 @@
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
       <c r="D13" s="64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20">
@@ -5603,7 +5603,7 @@
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="23">
@@ -5617,7 +5617,7 @@
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="59"/>
       <c r="F15" s="17">
@@ -5631,7 +5631,7 @@
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="57">
         <v>0.5</v>
@@ -5645,7 +5645,7 @@
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
       <c r="D17" s="64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="58">
         <v>0.4</v>
@@ -5659,7 +5659,7 @@
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" s="58">
         <v>0.8</v>
@@ -5709,7 +5709,7 @@
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26">
@@ -5723,7 +5723,7 @@
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="29">
@@ -5737,7 +5737,7 @@
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
       <c r="D24" s="65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" s="29"/>
       <c r="F24" s="29">
@@ -5751,7 +5751,7 @@
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
       <c r="D25" s="66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32">
@@ -5765,7 +5765,7 @@
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
       <c r="D26" s="65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26" s="26">
         <v>7</v>
@@ -5779,7 +5779,7 @@
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
       <c r="D27" s="65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E27" s="29">
         <v>8</v>
@@ -5793,7 +5793,7 @@
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
       <c r="D28" s="65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" s="29">
         <v>7.5</v>
@@ -5843,7 +5843,7 @@
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32" s="35"/>
       <c r="F32" s="35">
@@ -5857,7 +5857,7 @@
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
       <c r="D33" s="68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E33" s="38"/>
       <c r="F33" s="38">
@@ -5871,7 +5871,7 @@
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
       <c r="D34" s="67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E34" s="40"/>
       <c r="F34" s="40">
@@ -5885,7 +5885,7 @@
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E35" s="35"/>
       <c r="F35" s="35">
@@ -5899,7 +5899,7 @@
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E36" s="35">
         <v>0.6</v>
@@ -5913,7 +5913,7 @@
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
       <c r="D37" s="68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E37" s="38">
         <v>0.4</v>
@@ -5927,7 +5927,7 @@
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
       <c r="D38" s="67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E38" s="40">
         <v>0.8</v>
@@ -5977,7 +5977,7 @@
       <c r="B42" s="44"/>
       <c r="C42" s="44"/>
       <c r="D42" s="69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E42" s="44"/>
       <c r="F42" s="44">
@@ -5991,7 +5991,7 @@
       <c r="B43" s="47"/>
       <c r="C43" s="47"/>
       <c r="D43" s="69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E43" s="47"/>
       <c r="F43" s="47">
@@ -6005,7 +6005,7 @@
       <c r="B44" s="47"/>
       <c r="C44" s="47"/>
       <c r="D44" s="69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E44" s="47"/>
       <c r="F44" s="47">
@@ -6019,7 +6019,7 @@
       <c r="B45" s="49"/>
       <c r="C45" s="49"/>
       <c r="D45" s="70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E45" s="49"/>
       <c r="F45" s="49">
@@ -6033,7 +6033,7 @@
       <c r="B46" s="44"/>
       <c r="C46" s="44"/>
       <c r="D46" s="69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E46" s="44">
         <v>1</v>
@@ -6047,7 +6047,7 @@
       <c r="B47" s="47"/>
       <c r="C47" s="47"/>
       <c r="D47" s="69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E47" s="47">
         <v>0.5</v>
@@ -6061,7 +6061,7 @@
       <c r="B48" s="47"/>
       <c r="C48" s="47"/>
       <c r="D48" s="69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E48" s="47">
         <v>0.8</v>
@@ -6111,7 +6111,7 @@
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -6123,7 +6123,7 @@
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="4"/>
@@ -6135,7 +6135,7 @@
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="4"/>
@@ -6147,7 +6147,7 @@
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -6159,7 +6159,7 @@
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E56" s="6">
         <v>10</v>
@@ -6173,7 +6173,7 @@
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E57" s="4">
         <v>8</v>
@@ -6187,7 +6187,7 @@
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E58" s="6">
         <v>10</v>
@@ -6254,7 +6254,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>66</v>
@@ -7333,6 +7333,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="735ac009-2780-474d-ae1a-e7de7b40895b">
@@ -7341,15 +7350,6 @@
     <TaxCatchAll xmlns="ac371d7e-a586-483f-9eb3-3bd6211dff66" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7372,6 +7372,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEF3BD02-9D73-4CA7-87D4-7178AD42A084}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AB95AA2-4112-46C2-8CA1-DB0944494F6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -7386,12 +7394,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEF3BD02-9D73-4CA7-87D4-7178AD42A084}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>